--- a/myCBD/myInfo/CCS Code and Names Linkage.xlsx
+++ b/myCBD/myInfo/CCS Code and Names Linkage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="443">
   <si>
     <t>Tuberculosis</t>
   </si>
@@ -1338,6 +1338,12 @@
   </si>
   <si>
     <t>ccsName3</t>
+  </si>
+  <si>
+    <t>birthPregnancyRelated</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1410,11 +1416,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1423,6 +1440,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1716,11 +1738,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F284"/>
+  <dimension ref="A1:G284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,7 +1755,7 @@
     <col min="6" max="6" width="78.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="61.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="141" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>435</v>
       </c>
@@ -1752,5249 +1774,5287 @@
       <c r="F1" s="1" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>317</v>
       </c>
       <c r="E2" s="2">
-        <v>1.1000000000000001</v>
+        <v>15.6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>222</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>325</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>317</v>
       </c>
       <c r="E3" s="2">
-        <v>1.1000000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>321</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1</v>
+        <v>317</v>
       </c>
       <c r="E4" s="2">
-        <v>1.1000000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>316</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1</v>
+        <v>317</v>
       </c>
       <c r="E5" s="2">
-        <v>1.2</v>
+        <v>15.1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>224</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>329</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1</v>
+        <v>317</v>
       </c>
       <c r="E6" s="2">
-        <v>1.3</v>
+        <v>15.7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>323</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1</v>
+        <v>317</v>
       </c>
       <c r="E7" s="2">
-        <v>1.3</v>
+        <v>15.4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>219</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>319</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1</v>
+        <v>317</v>
       </c>
       <c r="E8" s="2">
-        <v>1.3</v>
+        <v>15.2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>245</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="E9" s="2">
-        <v>1.4</v>
+        <v>11.1</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>186</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="E10" s="2">
-        <v>1.1000000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>257</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="E11" s="2">
-        <v>1.5</v>
+        <v>11.3</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>180</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>190</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="2">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>188</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="2">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>194</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="2">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>182</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="2">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>183</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="2">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>178</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="2">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>187</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="2">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>193</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="2">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>195</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="2">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>181</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="2">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E22" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>196</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="2">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>191</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="2">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E24" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>179</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="2">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>189</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" s="2">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>185</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C27" s="2">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E27" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>177</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="2">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>192</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" s="2">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E29" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>213</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2.11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="D30" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E30" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>214</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C31" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2.11</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2.11</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="2">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="2">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="2">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="2">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="2">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>16</v>
+        <v>306</v>
       </c>
       <c r="E31" s="2">
-        <v>2.8</v>
+        <v>14.2</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="C32" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>16</v>
+        <v>306</v>
       </c>
       <c r="E32" s="2">
-        <v>2.8</v>
+        <v>14.3</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>43</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>16</v>
+        <v>306</v>
       </c>
       <c r="E33" s="2">
-        <v>2.9</v>
+        <v>14.4</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>47</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>314</v>
       </c>
       <c r="C34" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>16</v>
+        <v>306</v>
       </c>
       <c r="E34" s="2">
-        <v>2.9</v>
+        <v>14.5</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>47</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E35" s="2">
-        <v>2.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C36" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E36" s="2">
-        <v>2.11</v>
+        <v>4.2</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C37" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E37" s="2">
-        <v>2.11</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="C38" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E38" s="2">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C39" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E39" s="2">
-        <v>2.1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C40" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E40" s="2">
-        <v>2.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="C41" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="E41" s="2">
-        <v>2.1</v>
+        <v>7.3</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="C42" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="E42" s="2">
-        <v>2.11</v>
+        <v>7.2</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="C43" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="E43" s="2">
-        <v>2.12</v>
+        <v>7.4</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="C44" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="E44" s="2">
-        <v>2.13</v>
+        <v>7.4</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="C45" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="E45" s="2">
-        <v>2.14</v>
+        <v>7.2</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="C46" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="E46" s="2">
-        <v>2.15</v>
+        <v>7.2</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="C47" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="E47" s="2">
-        <v>2.16</v>
+        <v>7.2</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="C48" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="E48" s="2">
-        <v>2.16</v>
+        <v>7.2</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="C49" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E49" s="2">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="C50" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E50" s="2">
-        <v>3.2</v>
+        <v>7.1</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="C51" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E51" s="2">
-        <v>3.3</v>
+        <v>7.2</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="C52" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E52" s="2">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="C53" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E53" s="2">
-        <v>3.5</v>
+        <v>7.1</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="C54" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E54" s="2">
-        <v>3.6</v>
+        <v>7.3</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="C55" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E55" s="2">
-        <v>3.7</v>
+        <v>7.2</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="C56" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E56" s="2">
-        <v>3.8</v>
+        <v>7.3</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="C57" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E57" s="2">
-        <v>3.9</v>
+        <v>7.3</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="C58" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E58" s="2">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="C59" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E59" s="2">
-        <v>3.11</v>
+        <v>7.4</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="C60" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="E60" s="2">
-        <v>4.0999999999999996</v>
+        <v>7.5</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C61" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="E61" s="2">
-        <v>4.0999999999999996</v>
+        <v>7.2</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="C62" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="E62" s="2">
-        <v>4.0999999999999996</v>
+        <v>7.4</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="C63" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="E63" s="2">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="C64" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="E64" s="2">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="C65" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="E65" s="2">
-        <v>4.4000000000000004</v>
+        <v>7.3</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C66" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="E66" s="2">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="C67" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E67" s="2">
-        <v>6.1</v>
+        <v>9.5</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>105</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="C68" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E68" s="2">
-        <v>6.1</v>
+        <v>9.6</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="C69" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E69" s="2">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="C70" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E70" s="2">
-        <v>6.2</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="C71" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E71" s="2">
-        <v>6.2</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="C72" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E72" s="2">
-        <v>6.3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="C73" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E73" s="2">
-        <v>6.4</v>
+        <v>9.6</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>115</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="C74" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E74" s="2">
-        <v>6.5</v>
+        <v>9.4</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="C75" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E75" s="2">
-        <v>6.6</v>
+        <v>9.4</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>119</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="C76" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E76" s="2">
-        <v>6.7</v>
+        <v>9.4</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="C77" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E77" s="2">
-        <v>6.7</v>
+        <v>9.1</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="C78" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E78" s="2">
-        <v>6.7</v>
+        <v>9.1</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="C79" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E79" s="2">
-        <v>6.7</v>
+        <v>9.6</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="C80" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E80" s="2">
-        <v>6.7</v>
+        <v>9.11</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>121</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="C81" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E81" s="2">
-        <v>6.7</v>
+        <v>9.4</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>127</v>
+        <v>219</v>
       </c>
       <c r="C82" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E82" s="2">
-        <v>6.8</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="C83" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E83" s="2">
-        <v>6.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="C84" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E84" s="2">
-        <v>6.8</v>
+        <v>9.9</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="C85" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E85" s="2">
-        <v>6.9</v>
+        <v>9.6</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="C86" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="E86" s="2">
-        <v>7.2</v>
+        <v>9.6</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="C87" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E87" s="2">
-        <v>7.2</v>
+        <v>10.1</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="C88" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E88" s="2">
-        <v>7.1</v>
+        <v>10.1</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="C89" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E89" s="2">
-        <v>7.1</v>
+        <v>10.1</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="C90" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E90" s="2">
-        <v>7.2</v>
+        <v>10.3</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>135</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="C91" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E91" s="2">
-        <v>7.2</v>
+        <v>10.3</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>135</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="C92" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E92" s="2">
-        <v>7.2</v>
+        <v>10.1</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="C93" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E93" s="2">
-        <v>7.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>144</v>
+        <v>233</v>
       </c>
       <c r="C94" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E94" s="2">
-        <v>7.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>145</v>
+        <v>237</v>
       </c>
       <c r="C95" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E95" s="2">
-        <v>7.2</v>
+        <v>10.3</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>135</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="C96" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E96" s="2">
-        <v>7.2</v>
+        <v>10.3</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>135</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="C97" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E97" s="2">
-        <v>7.2</v>
+        <v>10.3</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>135</v>
+        <v>236</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>148</v>
+        <v>221</v>
       </c>
       <c r="C98" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E98" s="2">
-        <v>7.2</v>
+        <v>10.1</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="C99" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E99" s="2">
-        <v>7.3</v>
+        <v>10.3</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="C100" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E100" s="2">
-        <v>7.3</v>
+        <v>10.1</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>150</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="C101" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E101" s="2">
-        <v>7.3</v>
+        <v>10.1</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>150</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="C102" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E102" s="2">
-        <v>7.3</v>
+        <v>10.3</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="C103" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E103" s="2">
-        <v>7.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>150</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="C104" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E104" s="2">
-        <v>7.4</v>
+        <v>10.3</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>156</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="C105" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E105" s="2">
-        <v>7.4</v>
+        <v>10.3</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>156</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="C106" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E106" s="2">
-        <v>7.4</v>
+        <v>10.1</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>159</v>
+        <v>296</v>
       </c>
       <c r="C107" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>134</v>
+        <v>284</v>
       </c>
       <c r="E107" s="2">
-        <v>7.4</v>
+        <v>13.6</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>156</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>160</v>
+        <v>283</v>
       </c>
       <c r="C108" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>134</v>
+        <v>284</v>
       </c>
       <c r="E108" s="2">
-        <v>7.5</v>
+        <v>13.1</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>161</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="C109" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>134</v>
+        <v>284</v>
       </c>
       <c r="E109" s="2">
-        <v>7.5</v>
+        <v>13.2</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>161</v>
+        <v>287</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>163</v>
+        <v>292</v>
       </c>
       <c r="C110" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>134</v>
+        <v>284</v>
       </c>
       <c r="E110" s="2">
-        <v>7.5</v>
+        <v>13.4</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>161</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>164</v>
+        <v>298</v>
       </c>
       <c r="C111" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>134</v>
+        <v>284</v>
       </c>
       <c r="E111" s="2">
-        <v>7.5</v>
+        <v>13.6</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>165</v>
+        <v>303</v>
       </c>
       <c r="C112" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="E112" s="2">
-        <v>8.1</v>
+        <v>13.9</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>167</v>
+        <v>304</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>168</v>
+        <v>301</v>
       </c>
       <c r="C113" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="E113" s="2">
-        <v>8.1</v>
+        <v>13.8</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>167</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>169</v>
+        <v>289</v>
       </c>
       <c r="C114" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="E114" s="2">
-        <v>8.1</v>
+        <v>13.2</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>167</v>
+        <v>287</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>170</v>
+        <v>294</v>
       </c>
       <c r="C115" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="E115" s="2">
-        <v>8.1</v>
+        <v>13.5</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>167</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c r="C116" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="E116" s="2">
-        <v>8.1</v>
+        <v>13.2</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>167</v>
+        <v>287</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
       <c r="C117" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="E117" s="2">
-        <v>8.1999999999999993</v>
+        <v>13.3</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>173</v>
+        <v>291</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>174</v>
+        <v>299</v>
       </c>
       <c r="C118" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="E118" s="2">
-        <v>8.3000000000000007</v>
+        <v>13.7</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>175</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="C119" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="E119" s="2">
-        <v>8.4</v>
+        <v>6.7</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="C120" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="E120" s="2">
-        <v>8.5</v>
+        <v>6.7</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="C121" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="E121" s="2">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="C122" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="E122" s="2">
-        <v>8.6999999999999993</v>
+        <v>6.8</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="C123" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="E123" s="2">
-        <v>8.8000000000000007</v>
+        <v>6.1</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="C124" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="E124" s="2">
-        <v>8.9</v>
+        <v>6.4</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="C125" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="E125" s="2">
-        <v>9.1</v>
+        <v>6.7</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="C126" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="E126" s="2">
-        <v>9.1999999999999993</v>
+        <v>6.5</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="C127" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="E127" s="2">
-        <v>9.3000000000000007</v>
+        <v>6.7</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="C128" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="E128" s="2">
-        <v>9.4</v>
+        <v>6.1</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="C129" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="E129" s="2">
-        <v>9.4</v>
+        <v>6.2</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>196</v>
+        <v>109</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="C130" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="E130" s="2">
-        <v>9.4</v>
+        <v>6.1</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="C131" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="E131" s="2">
-        <v>9.4</v>
+        <v>6.8</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="C132" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="E132" s="2">
-        <v>9.6</v>
+        <v>6.7</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="C133" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="E133" s="2">
-        <v>9.5</v>
+        <v>6.2</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="C134" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="E134" s="2">
-        <v>9.6</v>
+        <v>6.9</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>201</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="C135" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="E135" s="2">
-        <v>9.6</v>
+        <v>6.8</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>206</v>
+        <v>112</v>
       </c>
       <c r="C136" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="E136" s="2">
-        <v>9.6</v>
+        <v>6.3</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>201</v>
+        <v>113</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="C137" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="E137" s="2">
-        <v>9.6</v>
+        <v>6.2</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>208</v>
+        <v>122</v>
       </c>
       <c r="C138" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="E138" s="2">
-        <v>9.6</v>
+        <v>6.7</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="C139" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="E139" s="2">
-        <v>9.6999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C140" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="E140" s="2">
-        <v>9.8000000000000007</v>
+        <v>8.1</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C141" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="E141" s="2">
-        <v>9.9</v>
+        <v>8.4</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="C142" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="E142" s="2">
-        <v>9.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C143" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="E143" s="2">
-        <v>9.11</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="C144" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="E144" s="2">
-        <v>9.1199999999999992</v>
+        <v>8.1</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="C145" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="E145" s="2">
-        <v>10.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="C146" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="E146" s="2">
-        <v>10.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="C147" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="E147" s="2">
-        <v>10.1</v>
+        <v>8.9</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="C148" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="E148" s="2">
-        <v>10.1</v>
+        <v>8.1</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="C149" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="E149" s="2">
-        <v>10.1</v>
+        <v>8.5</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="C150" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="E150" s="2">
-        <v>10.1</v>
+        <v>8.1</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="C151" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="E151" s="2">
-        <v>10.1</v>
+        <v>8.6</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="C152" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="E152" s="2">
-        <v>10.1</v>
+        <v>12.3</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="C153" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="E153" s="2">
-        <v>10.199999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="C154" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="E154" s="2">
-        <v>10.199999999999999</v>
+        <v>12.4</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="C155" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="E155" s="2">
-        <v>10.199999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="C156" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="E156" s="2">
-        <v>10.3</v>
+        <v>3.9</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="C157" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="E157" s="2">
-        <v>10.3</v>
+        <v>3.3</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>238</v>
+        <v>72</v>
       </c>
       <c r="C158" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="E158" s="2">
-        <v>10.3</v>
+        <v>3.2</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="G158" s="6"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="C159" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="E159" s="2">
-        <v>10.3</v>
+        <v>3.6</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>240</v>
+        <v>84</v>
       </c>
       <c r="C160" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="E160" s="2">
-        <v>10.3</v>
+        <v>3.8</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>236</v>
+        <v>85</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="C161" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="E161" s="2">
-        <v>10.3</v>
+        <v>3.7</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>236</v>
+        <v>83</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>242</v>
+        <v>88</v>
       </c>
       <c r="C162" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="E162" s="2">
-        <v>10.3</v>
+        <v>3.1</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>236</v>
+        <v>89</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="C163" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="E163" s="2">
-        <v>10.3</v>
+        <v>3.5</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="C164" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="E164" s="2">
-        <v>10.3</v>
+        <v>3.4</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>236</v>
+        <v>77</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>245</v>
+        <v>90</v>
       </c>
       <c r="C165" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>246</v>
+        <v>70</v>
       </c>
       <c r="E165" s="2">
-        <v>11.1</v>
+        <v>3.11</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>247</v>
+        <v>91</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>248</v>
+        <v>69</v>
       </c>
       <c r="C166" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>246</v>
+        <v>70</v>
       </c>
       <c r="E166" s="2">
-        <v>11.2</v>
+        <v>3.1</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>249</v>
+        <v>71</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="C167" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="E167" s="2">
-        <v>11.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>249</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>179</v>
+        <v>6</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>251</v>
+        <v>9</v>
       </c>
       <c r="C168" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="E168" s="2">
-        <v>11.2</v>
+        <v>1.3</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>249</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>252</v>
+        <v>7</v>
       </c>
       <c r="C169" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="E169" s="2">
-        <v>11.3</v>
+        <v>1.3</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>253</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>254</v>
+        <v>13</v>
       </c>
       <c r="C170" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="E170" s="2">
-        <v>11.3</v>
+        <v>1.5</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>253</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>255</v>
+        <v>5</v>
       </c>
       <c r="C171" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="E171" s="2">
-        <v>11.3</v>
+        <v>1.2</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>253</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>183</v>
+        <v>8</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="C172" s="2">
+        <v>1</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E172" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F172" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E172" s="2">
-        <v>11.3</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>257</v>
+        <v>3</v>
       </c>
       <c r="C173" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="E173" s="2">
-        <v>11.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>253</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="C174" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="E174" s="2">
-        <v>11.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>253</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="C175" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="E175" s="2">
-        <v>11.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>253</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>187</v>
+        <v>7</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>260</v>
+        <v>8</v>
       </c>
       <c r="C176" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="E176" s="2">
-        <v>11.4</v>
+        <v>1.3</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>261</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>262</v>
+        <v>356</v>
       </c>
       <c r="C177" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="E177" s="2">
-        <v>11.4</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>261</v>
+        <v>357</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>263</v>
+        <v>351</v>
       </c>
       <c r="C178" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="E178" s="2">
-        <v>11.4</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>261</v>
+        <v>352</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>264</v>
+        <v>353</v>
       </c>
       <c r="C179" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="E179" s="2">
-        <v>11.4</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>261</v>
+        <v>352</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="C180" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="E180" s="2">
-        <v>11.4</v>
+        <v>16.5</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>261</v>
+        <v>347</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="C181" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="E181" s="2">
-        <v>11.5</v>
+        <v>16.2</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>268</v>
+        <v>334</v>
       </c>
       <c r="C182" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="E182" s="2">
-        <v>11.5</v>
+        <v>16.2</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
       <c r="C183" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="E183" s="2">
-        <v>11.5</v>
+        <v>16.2</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>270</v>
+        <v>344</v>
       </c>
       <c r="C184" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="E184" s="2">
-        <v>11.6</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>272</v>
+        <v>331</v>
       </c>
       <c r="C185" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="E185" s="2">
-        <v>11.7</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>273</v>
+        <v>333</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>274</v>
+        <v>350</v>
       </c>
       <c r="C186" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="E186" s="2">
-        <v>12.1</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>276</v>
+        <v>349</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>277</v>
+        <v>348</v>
       </c>
       <c r="C187" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="E187" s="2">
-        <v>12.2</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>278</v>
+        <v>349</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="C188" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="E188" s="2">
-        <v>12.3</v>
+        <v>16.2</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>280</v>
+        <v>335</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>281</v>
+        <v>362</v>
       </c>
       <c r="C189" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="E189" s="2">
-        <v>12.4</v>
+        <v>16.12</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>282</v>
+        <v>363</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>283</v>
+        <v>361</v>
       </c>
       <c r="C190" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="E190" s="2">
-        <v>13.1</v>
+        <v>16.11</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>285</v>
+        <v>359</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>286</v>
+        <v>360</v>
       </c>
       <c r="C191" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="E191" s="2">
-        <v>13.2</v>
+        <v>16.11</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>287</v>
+        <v>359</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>288</v>
+        <v>358</v>
       </c>
       <c r="C192" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="E192" s="2">
-        <v>13.2</v>
+        <v>16.11</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="C193" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="E193" s="2">
-        <v>13.2</v>
+        <v>16.2</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="C194" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="E194" s="2">
-        <v>13.3</v>
+        <v>16.3</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="C195" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="E195" s="2">
-        <v>13.4</v>
+        <v>16.7</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>294</v>
+        <v>354</v>
       </c>
       <c r="C196" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="E196" s="2">
-        <v>13.5</v>
+        <v>16.8</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>208</v>
+        <v>650</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>296</v>
+        <v>383</v>
       </c>
       <c r="C197" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>284</v>
+        <v>384</v>
       </c>
       <c r="E197" s="2">
-        <v>13.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>209</v>
+        <v>660</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>298</v>
+        <v>404</v>
       </c>
       <c r="C198" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>284</v>
+        <v>384</v>
       </c>
       <c r="E198" s="2">
-        <v>13.6</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="G198" s="6"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>210</v>
+        <v>651</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>299</v>
+        <v>386</v>
       </c>
       <c r="C199" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>284</v>
+        <v>384</v>
       </c>
       <c r="E199" s="2">
-        <v>13.7</v>
+        <v>5.2</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="G199" s="6"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>211</v>
+        <v>652</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>301</v>
+        <v>388</v>
       </c>
       <c r="C200" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>284</v>
+        <v>384</v>
       </c>
       <c r="E200" s="2">
-        <v>13.8</v>
+        <v>5.3</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>212</v>
+        <v>653</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>303</v>
+        <v>390</v>
       </c>
       <c r="C201" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>284</v>
+        <v>384</v>
       </c>
       <c r="E201" s="2">
-        <v>13.9</v>
+        <v>5.4</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>213</v>
+        <v>654</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>305</v>
+        <v>392</v>
       </c>
       <c r="C202" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>306</v>
+        <v>384</v>
       </c>
       <c r="E202" s="2">
-        <v>14.1</v>
+        <v>5.5</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>214</v>
+        <v>655</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>308</v>
+        <v>394</v>
       </c>
       <c r="C203" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>306</v>
+        <v>384</v>
       </c>
       <c r="E203" s="2">
-        <v>14.2</v>
+        <v>5.6</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>215</v>
+        <v>656</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="C204" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>306</v>
+        <v>384</v>
       </c>
       <c r="E204" s="2">
-        <v>14.3</v>
+        <v>5.7</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>216</v>
+        <v>670</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>312</v>
+        <v>412</v>
       </c>
       <c r="C205" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>306</v>
+        <v>384</v>
       </c>
       <c r="E205" s="2">
-        <v>14.4</v>
+        <v>5.15</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>217</v>
+        <v>657</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="C206" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>306</v>
+        <v>384</v>
       </c>
       <c r="E206" s="2">
-        <v>14.5</v>
+        <v>5.8</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>218</v>
+        <v>658</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="C207" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="E207" s="2">
-        <v>15.1</v>
+        <v>5.9</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>219</v>
+        <v>659</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>319</v>
+        <v>402</v>
       </c>
       <c r="C208" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="E208" s="2">
-        <v>15.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>320</v>
+        <v>403</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <v>220</v>
+        <v>663</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>321</v>
+        <v>410</v>
       </c>
       <c r="C209" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="E209" s="2">
-        <v>15.3</v>
+        <v>5.14</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>322</v>
+        <v>411</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <v>221</v>
+        <v>661</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>323</v>
+        <v>406</v>
       </c>
       <c r="C210" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="E210" s="2">
-        <v>15.4</v>
+        <v>5.12</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>324</v>
+        <v>407</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
-        <v>222</v>
+        <v>662</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>325</v>
+        <v>408</v>
       </c>
       <c r="C211" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="E211" s="2">
-        <v>15.5</v>
+        <v>5.13</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>326</v>
+        <v>409</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>327</v>
+        <v>66</v>
       </c>
       <c r="C212" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>317</v>
+        <v>16</v>
       </c>
       <c r="E212" s="2">
-        <v>15.6</v>
+        <v>2.16</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>328</v>
+        <v>67</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
-        <v>224</v>
+        <v>32</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>329</v>
+        <v>46</v>
       </c>
       <c r="C213" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>317</v>
+        <v>16</v>
       </c>
       <c r="E213" s="2">
-        <v>15.7</v>
+        <v>2.9</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>330</v>
+        <v>47</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>331</v>
+        <v>30</v>
       </c>
       <c r="C214" s="2">
+        <v>2</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D214" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E214" s="2">
-        <v>16.100000000000001</v>
+        <v>2.11</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>333</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>334</v>
+        <v>50</v>
       </c>
       <c r="C215" s="2">
+        <v>2</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D215" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E215" s="2">
-        <v>16.2</v>
+        <v>2.11</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>335</v>
+        <v>17</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>336</v>
+        <v>34</v>
       </c>
       <c r="C216" s="2">
+        <v>2</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D216" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E216" s="2">
-        <v>16.3</v>
+        <v>2.5</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>337</v>
+        <v>35</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>338</v>
+        <v>27</v>
       </c>
       <c r="C217" s="2">
+        <v>2</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D217" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E217" s="2">
-        <v>16.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>335</v>
+        <v>28</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>339</v>
+        <v>38</v>
       </c>
       <c r="C218" s="2">
+        <v>2</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D218" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E218" s="2">
-        <v>16.2</v>
+        <v>2.6</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>335</v>
+        <v>37</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>340</v>
+        <v>21</v>
       </c>
       <c r="C219" s="2">
+        <v>2</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E219" s="2">
-        <v>16.2</v>
+        <v>2.1</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>335</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>341</v>
+        <v>18</v>
       </c>
       <c r="C220" s="2">
+        <v>2</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E220" s="2">
-        <v>16.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>342</v>
+        <v>15</v>
       </c>
       <c r="C221" s="2">
+        <v>2</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D221" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E221" s="2">
-        <v>16.7</v>
+        <v>2.11</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>343</v>
+        <v>17</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
-        <v>233</v>
+        <v>33</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>344</v>
+        <v>48</v>
       </c>
       <c r="C222" s="2">
+        <v>2</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D222" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E222" s="2">
-        <v>16.399999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>345</v>
+        <v>47</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>346</v>
+        <v>24</v>
       </c>
       <c r="C223" s="2">
+        <v>2</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D223" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E223" s="2">
-        <v>16.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>347</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>348</v>
+        <v>41</v>
       </c>
       <c r="C224" s="2">
+        <v>2</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D224" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E224" s="2">
-        <v>16.600000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>349</v>
+        <v>40</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>350</v>
+        <v>26</v>
       </c>
       <c r="C225" s="2">
+        <v>2</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D225" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E225" s="2">
-        <v>16.600000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="C226" s="2">
+        <v>2</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D226" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E226" s="2">
-        <v>16.100000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>352</v>
+        <v>43</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
-        <v>238</v>
+        <v>34</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>353</v>
+        <v>49</v>
       </c>
       <c r="C227" s="2">
+        <v>2</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D227" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E227" s="2">
-        <v>16.100000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>352</v>
+        <v>47</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>354</v>
+        <v>39</v>
       </c>
       <c r="C228" s="2">
+        <v>2</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D228" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E228" s="2">
-        <v>16.8</v>
+        <v>2.7</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>355</v>
+        <v>40</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
-        <v>240</v>
+        <v>17</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>356</v>
+        <v>25</v>
       </c>
       <c r="C229" s="2">
+        <v>2</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D229" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E229" s="2">
-        <v>16.899999999999999</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>357</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>358</v>
+        <v>42</v>
       </c>
       <c r="C230" s="2">
+        <v>2</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D230" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E230" s="2">
-        <v>16.11</v>
+        <v>2.8</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>359</v>
+        <v>43</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>360</v>
+        <v>23</v>
       </c>
       <c r="C231" s="2">
+        <v>2</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D231" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E231" s="2">
-        <v>16.11</v>
+        <v>2.1</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>359</v>
+        <v>22</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
-        <v>243</v>
+        <v>13</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>361</v>
+        <v>20</v>
       </c>
       <c r="C232" s="2">
+        <v>2</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D232" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E232" s="2">
-        <v>16.11</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>359</v>
+        <v>19</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
-        <v>244</v>
+        <v>30</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>362</v>
+        <v>44</v>
       </c>
       <c r="C233" s="2">
+        <v>2</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D233" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="E233" s="2">
-        <v>16.12</v>
+        <v>2.8</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>363</v>
+        <v>43</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>364</v>
+        <v>51</v>
       </c>
       <c r="C234" s="2">
+        <v>2</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E234" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="F234" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E234" s="2">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>367</v>
+        <v>36</v>
       </c>
       <c r="C235" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>365</v>
+        <v>16</v>
       </c>
       <c r="E235" s="2">
-        <v>17.100000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>366</v>
+        <v>37</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>368</v>
+        <v>57</v>
       </c>
       <c r="C236" s="2">
+        <v>2</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E236" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="F236" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E236" s="2">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>369</v>
+        <v>29</v>
       </c>
       <c r="C237" s="2">
+        <v>2</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E237" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="F237" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E237" s="2">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>370</v>
+        <v>52</v>
       </c>
       <c r="C238" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>365</v>
+        <v>16</v>
       </c>
       <c r="E238" s="2">
-        <v>17.100000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>366</v>
+        <v>53</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
-        <v>250</v>
+        <v>39</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>371</v>
+        <v>55</v>
       </c>
       <c r="C239" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>365</v>
+        <v>16</v>
       </c>
       <c r="E239" s="2">
-        <v>17.100000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>366</v>
+        <v>53</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>372</v>
+        <v>64</v>
       </c>
       <c r="C240" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>365</v>
+        <v>16</v>
       </c>
       <c r="E240" s="2">
-        <v>17.100000000000001</v>
+        <v>2.15</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>373</v>
+        <v>60</v>
       </c>
       <c r="C241" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>365</v>
+        <v>16</v>
       </c>
       <c r="E241" s="2">
-        <v>17.100000000000001</v>
+        <v>2.13</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>374</v>
+        <v>31</v>
       </c>
       <c r="C242" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>365</v>
+        <v>16</v>
       </c>
       <c r="E242" s="2">
-        <v>17.100000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>375</v>
+        <v>56</v>
       </c>
       <c r="C243" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>365</v>
+        <v>16</v>
       </c>
       <c r="E243" s="2">
-        <v>17.2</v>
+        <v>2.1</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
-        <v>255</v>
+        <v>44</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>377</v>
+        <v>62</v>
       </c>
       <c r="C244" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>365</v>
+        <v>16</v>
       </c>
       <c r="E244" s="2">
-        <v>17.2</v>
+        <v>2.14</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>378</v>
+        <v>54</v>
       </c>
       <c r="C245" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>365</v>
+        <v>16</v>
       </c>
       <c r="E245" s="2">
-        <v>17.2</v>
+        <v>2.1</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
-        <v>257</v>
+        <v>47</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>379</v>
+        <v>68</v>
       </c>
       <c r="C246" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>365</v>
+        <v>16</v>
       </c>
       <c r="E246" s="2">
-        <v>17.2</v>
+        <v>2.16</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="G246" s="6"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
-        <v>258</v>
+        <v>23</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>380</v>
+        <v>33</v>
       </c>
       <c r="C247" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>365</v>
+        <v>16</v>
       </c>
       <c r="E247" s="2">
-        <v>17.2</v>
+        <v>2.4</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G247" s="6"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>381</v>
+        <v>58</v>
       </c>
       <c r="C248" s="2">
+        <v>2</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E248" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G248" s="6"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
+        <v>2616</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C249" s="2">
         <v>18</v>
       </c>
-      <c r="D248" s="2" t="s">
+      <c r="D249" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E248" s="2"/>
-      <c r="F248" s="2"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="2">
-        <v>650</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C249" s="2">
-        <v>5</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E249" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
-        <v>651</v>
+        <v>2617</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="C250" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E250" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="F250" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="6"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
-        <v>652</v>
+        <v>2601</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="C251" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E251" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
-        <v>653</v>
+        <v>2602</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="C252" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E252" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
-        <v>654</v>
+        <v>2603</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="C253" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E253" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
-        <v>655</v>
+        <v>2604</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="C254" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E254" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
-        <v>656</v>
+        <v>2605</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="C255" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E255" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
-        <v>657</v>
+        <v>2606</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="C256" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E256" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>399</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
-        <v>658</v>
+        <v>2607</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="C257" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E257" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>401</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
-        <v>659</v>
+        <v>2611</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="C258" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E258" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>403</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="E258" s="2"/>
+      <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
-        <v>660</v>
+        <v>2618</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="C259" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E259" s="2">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>405</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
-        <v>661</v>
+        <v>2619</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="C260" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E260" s="2">
-        <v>5.12</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>407</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
-        <v>662</v>
+        <v>2612</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="C261" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E261" s="2">
-        <v>5.13</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>409</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
-        <v>663</v>
+        <v>2608</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="C262" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E262" s="2">
-        <v>5.14</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>411</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
-        <v>670</v>
+        <v>2609</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="C263" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E263" s="2">
-        <v>5.15</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>413</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
-        <v>2601</v>
+        <v>2621</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="C264" s="2">
         <v>18</v>
@@ -7007,10 +7067,10 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
-        <v>2602</v>
+        <v>2613</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="C265" s="2">
         <v>18</v>
@@ -7023,10 +7083,10 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
-        <v>2603</v>
+        <v>2614</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="C266" s="2">
         <v>18</v>
@@ -7039,10 +7099,10 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
-        <v>2604</v>
+        <v>2615</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="C267" s="2">
         <v>18</v>
@@ -7055,10 +7115,10 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
-        <v>2605</v>
+        <v>2610</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C268" s="2">
         <v>18</v>
@@ -7071,10 +7131,10 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
-        <v>2606</v>
+        <v>2620</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="C269" s="2">
         <v>18</v>
@@ -7087,10 +7147,10 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
-        <v>2607</v>
+        <v>259</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="C270" s="2">
         <v>18</v>
@@ -7103,229 +7163,288 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
-        <v>2608</v>
+        <v>251</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="C271" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="E271" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
-        <v>2609</v>
+        <v>255</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
       <c r="C272" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="E272" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
-        <v>2610</v>
+        <v>253</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C273" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E273" s="2"/>
-      <c r="F273" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="E273" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
-        <v>2611</v>
+        <v>246</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
       <c r="C274" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E274" s="2"/>
-      <c r="F274" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="E274" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
-        <v>2612</v>
+        <v>248</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>425</v>
+        <v>369</v>
       </c>
       <c r="C275" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E275" s="2"/>
-      <c r="F275" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="E275" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
-        <v>2613</v>
+        <v>247</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>426</v>
+        <v>368</v>
       </c>
       <c r="C276" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E276" s="2"/>
-      <c r="F276" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="E276" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
-        <v>2614</v>
+        <v>252</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="C277" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="E277" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
-        <v>2615</v>
+        <v>256</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="C278" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E278" s="2"/>
-      <c r="F278" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="E278" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
-        <v>2616</v>
+        <v>250</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="C279" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E279" s="2"/>
-      <c r="F279" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="E279" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
-        <v>2617</v>
+        <v>257</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="C280" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E280" s="2"/>
-      <c r="F280" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="E280" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
-        <v>2618</v>
+        <v>258</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>431</v>
+        <v>380</v>
       </c>
       <c r="C281" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E281" s="2"/>
-      <c r="F281" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="E281" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
-        <v>2619</v>
+        <v>254</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>432</v>
+        <v>375</v>
       </c>
       <c r="C282" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E282" s="2"/>
-      <c r="F282" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="E282" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
-        <v>2620</v>
+        <v>249</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>433</v>
+        <v>370</v>
       </c>
       <c r="C283" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E283" s="2"/>
-      <c r="F283" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="E283" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
-        <v>2621</v>
+        <v>245</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>434</v>
+        <v>364</v>
       </c>
       <c r="C284" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E284" s="2"/>
-      <c r="F284" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="E284" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G284">
+    <sortCondition ref="D2:D284"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/myCBD/myInfo/CCS Code and Names Linkage.xlsx
+++ b/myCBD/myInfo/CCS Code and Names Linkage.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\AgeCauseApp\tempPlace\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="names" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="457">
   <si>
     <t>Tuberculosis</t>
   </si>
@@ -1341,13 +1346,58 @@
   </si>
   <si>
     <t>birth</t>
+  </si>
+  <si>
+    <t>topLev</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Birth</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>Cardiovascular</t>
+  </si>
+  <si>
+    <t>Other Chronic</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Other chronic</t>
+  </si>
+  <si>
+    <t>Communicable</t>
+  </si>
+  <si>
+    <t>Injury</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1365,8 +1415,15 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1376,6 +1433,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF4F81BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1428,7 +1491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1438,9 +1501,17 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+      <alignment horizontal="right" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1450,6 +1521,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1734,11 +1808,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G284"/>
+  <dimension ref="A1:I284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G282" sqref="G282"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,9 +1823,12 @@
     <col min="4" max="4" width="65.7109375" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="78.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="7"/>
+    <col min="8" max="8" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="61.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>435</v>
       </c>
@@ -1773,8 +1850,14 @@
       <c r="G1" s="4" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>223</v>
       </c>
@@ -1793,11 +1876,17 @@
       <c r="F2" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="G2" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>222</v>
       </c>
@@ -1816,11 +1905,17 @@
       <c r="F3" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="G3" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>220</v>
       </c>
@@ -1839,11 +1934,17 @@
       <c r="F4" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="G4" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>218</v>
       </c>
@@ -1862,11 +1963,17 @@
       <c r="F5" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="G5" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>224</v>
       </c>
@@ -1885,11 +1992,17 @@
       <c r="F6" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>221</v>
       </c>
@@ -1908,11 +2021,17 @@
       <c r="F7" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G7" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>219</v>
       </c>
@@ -1931,11 +2050,17 @@
       <c r="F8" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G8" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>176</v>
       </c>
@@ -1954,11 +2079,17 @@
       <c r="F9" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G9" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>186</v>
       </c>
@@ -1977,11 +2108,17 @@
       <c r="F10" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G10" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>184</v>
       </c>
@@ -2000,11 +2137,17 @@
       <c r="F11" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G11" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>180</v>
       </c>
@@ -2023,11 +2166,17 @@
       <c r="F12" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G12" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>190</v>
       </c>
@@ -2046,11 +2195,17 @@
       <c r="F13" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G13" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>188</v>
       </c>
@@ -2069,11 +2224,17 @@
       <c r="F14" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G14" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>194</v>
       </c>
@@ -2092,11 +2253,17 @@
       <c r="F15" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G15" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>182</v>
       </c>
@@ -2115,11 +2282,17 @@
       <c r="F16" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G16" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>183</v>
       </c>
@@ -2138,11 +2311,17 @@
       <c r="F17" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G17" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>178</v>
       </c>
@@ -2161,11 +2340,17 @@
       <c r="F18" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G18" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>187</v>
       </c>
@@ -2184,11 +2369,17 @@
       <c r="F19" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G19" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>193</v>
       </c>
@@ -2207,11 +2398,17 @@
       <c r="F20" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G20" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>195</v>
       </c>
@@ -2230,11 +2427,17 @@
       <c r="F21" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G21" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>181</v>
       </c>
@@ -2253,11 +2456,17 @@
       <c r="F22" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G22" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>196</v>
       </c>
@@ -2276,11 +2485,17 @@
       <c r="F23" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G23" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>191</v>
       </c>
@@ -2299,11 +2514,17 @@
       <c r="F24" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G24" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>179</v>
       </c>
@@ -2322,11 +2543,17 @@
       <c r="F25" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G25" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>189</v>
       </c>
@@ -2345,11 +2572,17 @@
       <c r="F26" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G26" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>185</v>
       </c>
@@ -2368,11 +2601,17 @@
       <c r="F27" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G27" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>177</v>
       </c>
@@ -2391,11 +2630,17 @@
       <c r="F28" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G28" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>192</v>
       </c>
@@ -2414,11 +2659,17 @@
       <c r="F29" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G29" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>213</v>
       </c>
@@ -2437,11 +2688,17 @@
       <c r="F30" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G30" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>214</v>
       </c>
@@ -2460,11 +2717,17 @@
       <c r="F31" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G31" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>215</v>
       </c>
@@ -2483,11 +2746,17 @@
       <c r="F32" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G32" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>216</v>
       </c>
@@ -2506,11 +2775,17 @@
       <c r="F33" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G33" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>217</v>
       </c>
@@ -2529,11 +2804,17 @@
       <c r="F34" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G34" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>60</v>
       </c>
@@ -2552,11 +2833,17 @@
       <c r="F35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>62</v>
       </c>
@@ -2575,11 +2862,17 @@
       <c r="F36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>59</v>
       </c>
@@ -2598,11 +2891,17 @@
       <c r="F37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G37" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>63</v>
       </c>
@@ -2621,11 +2920,17 @@
       <c r="F38" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>64</v>
       </c>
@@ -2644,11 +2949,17 @@
       <c r="F39" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>61</v>
       </c>
@@ -2667,11 +2978,17 @@
       <c r="F40" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>109</v>
       </c>
@@ -2690,11 +3007,17 @@
       <c r="F41" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G41" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>100</v>
       </c>
@@ -2713,11 +3036,17 @@
       <c r="F42" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G42" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>116</v>
       </c>
@@ -2736,11 +3065,17 @@
       <c r="F43" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G43" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>115</v>
       </c>
@@ -2759,11 +3094,17 @@
       <c r="F44" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G44" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>107</v>
       </c>
@@ -2782,11 +3123,17 @@
       <c r="F45" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G45" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>106</v>
       </c>
@@ -2805,11 +3152,17 @@
       <c r="F46" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G46" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>105</v>
       </c>
@@ -2828,11 +3181,17 @@
       <c r="F47" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G47" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>108</v>
       </c>
@@ -2851,11 +3210,17 @@
       <c r="F48" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G48" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>101</v>
       </c>
@@ -2874,11 +3239,17 @@
       <c r="F49" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G49" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>98</v>
       </c>
@@ -2897,11 +3268,17 @@
       <c r="F50" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G50" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>96</v>
       </c>
@@ -2920,11 +3297,17 @@
       <c r="F51" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G51" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G51" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>120</v>
       </c>
@@ -2943,11 +3326,17 @@
       <c r="F52" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G52" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>99</v>
       </c>
@@ -2966,11 +3355,17 @@
       <c r="F53" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G53" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>113</v>
       </c>
@@ -2989,11 +3384,17 @@
       <c r="F54" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G54" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G54" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>102</v>
       </c>
@@ -3012,11 +3413,17 @@
       <c r="F55" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G55" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G55" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>110</v>
       </c>
@@ -3035,11 +3442,17 @@
       <c r="F56" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G56" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>111</v>
       </c>
@@ -3058,11 +3471,17 @@
       <c r="F57" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G57" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>104</v>
       </c>
@@ -3081,11 +3500,17 @@
       <c r="F58" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G58" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>117</v>
       </c>
@@ -3104,11 +3529,17 @@
       <c r="F59" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G59" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>121</v>
       </c>
@@ -3127,11 +3558,17 @@
       <c r="F60" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G60" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>97</v>
       </c>
@@ -3150,11 +3587,17 @@
       <c r="F61" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G61" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>114</v>
       </c>
@@ -3173,11 +3616,17 @@
       <c r="F62" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G62" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G62" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>118</v>
       </c>
@@ -3196,11 +3645,17 @@
       <c r="F63" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G63" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>103</v>
       </c>
@@ -3219,11 +3674,17 @@
       <c r="F64" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G64" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G64" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>112</v>
       </c>
@@ -3242,11 +3703,17 @@
       <c r="F65" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G65" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>119</v>
       </c>
@@ -3265,11 +3732,17 @@
       <c r="F66" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G66" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>143</v>
       </c>
@@ -3288,11 +3761,17 @@
       <c r="F67" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G67" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>147</v>
       </c>
@@ -3311,11 +3790,17 @@
       <c r="F68" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G68" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>142</v>
       </c>
@@ -3334,11 +3819,17 @@
       <c r="F69" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G69" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>149</v>
       </c>
@@ -3357,11 +3848,17 @@
       <c r="F70" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G70" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>137</v>
       </c>
@@ -3380,11 +3877,17 @@
       <c r="F71" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G71" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G71" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>136</v>
       </c>
@@ -3403,11 +3906,17 @@
       <c r="F72" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G72" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>146</v>
       </c>
@@ -3426,11 +3935,17 @@
       <c r="F73" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G73" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G73" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>138</v>
       </c>
@@ -3449,11 +3964,17 @@
       <c r="F74" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G74" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G74" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>140</v>
       </c>
@@ -3472,11 +3993,17 @@
       <c r="F75" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G75" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G75" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>139</v>
       </c>
@@ -3495,11 +4022,17 @@
       <c r="F76" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G76" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G76" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>153</v>
       </c>
@@ -3518,11 +4051,17 @@
       <c r="F77" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G77" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G77" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>135</v>
       </c>
@@ -3541,11 +4080,17 @@
       <c r="F78" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G78" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G78" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>145</v>
       </c>
@@ -3564,11 +4109,17 @@
       <c r="F79" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G79" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G79" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>154</v>
       </c>
@@ -3587,11 +4138,17 @@
       <c r="F80" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G80" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G80" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>141</v>
       </c>
@@ -3610,11 +4167,17 @@
       <c r="F81" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G81" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G81" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>155</v>
       </c>
@@ -3633,11 +4196,17 @@
       <c r="F82" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G82" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G82" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>151</v>
       </c>
@@ -3656,11 +4225,17 @@
       <c r="F83" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G83" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G83" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>152</v>
       </c>
@@ -3679,11 +4254,17 @@
       <c r="F84" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G84" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G84" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>148</v>
       </c>
@@ -3702,11 +4283,17 @@
       <c r="F85" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G85" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G85" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>144</v>
       </c>
@@ -3725,11 +4312,17 @@
       <c r="F86" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G86" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G86" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>157</v>
       </c>
@@ -3748,11 +4341,17 @@
       <c r="F87" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G87" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G87" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>160</v>
       </c>
@@ -3771,11 +4370,17 @@
       <c r="F88" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G88" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G88" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>158</v>
       </c>
@@ -3794,11 +4399,17 @@
       <c r="F89" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G89" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G89" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>169</v>
       </c>
@@ -3817,11 +4428,17 @@
       <c r="F90" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G90" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G90" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>174</v>
       </c>
@@ -3840,11 +4457,17 @@
       <c r="F91" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G91" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G91" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>163</v>
       </c>
@@ -3863,11 +4486,17 @@
       <c r="F92" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G92" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G92" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>164</v>
       </c>
@@ -3886,11 +4515,17 @@
       <c r="F93" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G93" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G93" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>165</v>
       </c>
@@ -3909,11 +4544,17 @@
       <c r="F94" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G94" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G94" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>168</v>
       </c>
@@ -3932,11 +4573,17 @@
       <c r="F95" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G95" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G95" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>173</v>
       </c>
@@ -3955,11 +4602,17 @@
       <c r="F96" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G96" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G96" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>171</v>
       </c>
@@ -3978,11 +4631,17 @@
       <c r="F97" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G97" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G97" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>156</v>
       </c>
@@ -4001,11 +4660,17 @@
       <c r="F98" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G98" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G98" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>167</v>
       </c>
@@ -4024,11 +4689,17 @@
       <c r="F99" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G99" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G99" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>162</v>
       </c>
@@ -4047,11 +4718,17 @@
       <c r="F100" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G100" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G100" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>161</v>
       </c>
@@ -4070,11 +4747,17 @@
       <c r="F101" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G101" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G101" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>175</v>
       </c>
@@ -4093,11 +4776,17 @@
       <c r="F102" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G102" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G102" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>166</v>
       </c>
@@ -4116,11 +4805,17 @@
       <c r="F103" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G103" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G103" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>172</v>
       </c>
@@ -4139,11 +4834,17 @@
       <c r="F104" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G104" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G104" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>170</v>
       </c>
@@ -4162,11 +4863,17 @@
       <c r="F105" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G105" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G105" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>159</v>
       </c>
@@ -4185,11 +4892,17 @@
       <c r="F106" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G106" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G106" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>208</v>
       </c>
@@ -4208,11 +4921,17 @@
       <c r="F107" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G107" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G107" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>201</v>
       </c>
@@ -4231,11 +4950,17 @@
       <c r="F108" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G108" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G108" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>203</v>
       </c>
@@ -4254,11 +4979,17 @@
       <c r="F109" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G109" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G109" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>206</v>
       </c>
@@ -4277,11 +5008,17 @@
       <c r="F110" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G110" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G110" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>209</v>
       </c>
@@ -4300,11 +5037,17 @@
       <c r="F111" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G111" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G111" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>212</v>
       </c>
@@ -4323,11 +5066,17 @@
       <c r="F112" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="G112" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G112" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>211</v>
       </c>
@@ -4346,11 +5095,17 @@
       <c r="F113" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G113" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G113" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>204</v>
       </c>
@@ -4369,11 +5124,17 @@
       <c r="F114" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G114" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G114" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>207</v>
       </c>
@@ -4392,11 +5153,17 @@
       <c r="F115" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G115" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G115" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>202</v>
       </c>
@@ -4415,11 +5182,17 @@
       <c r="F116" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G116" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G116" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>205</v>
       </c>
@@ -4438,11 +5211,17 @@
       <c r="F117" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G117" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G117" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>210</v>
       </c>
@@ -4461,11 +5240,17 @@
       <c r="F118" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="G118" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G118" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>89</v>
       </c>
@@ -4484,11 +5269,17 @@
       <c r="F119" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G119" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G119" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>86</v>
       </c>
@@ -4507,11 +5298,17 @@
       <c r="F120" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G120" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G120" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>85</v>
       </c>
@@ -4530,11 +5327,17 @@
       <c r="F121" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G121" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G121" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>93</v>
       </c>
@@ -4553,11 +5356,17 @@
       <c r="F122" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G122" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G122" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>77</v>
       </c>
@@ -4576,11 +5385,17 @@
       <c r="F123" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G123" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G123" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>83</v>
       </c>
@@ -4599,11 +5414,17 @@
       <c r="F124" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G124" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G124" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>88</v>
       </c>
@@ -4622,11 +5443,17 @@
       <c r="F125" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G125" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G125" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>84</v>
       </c>
@@ -4645,11 +5472,17 @@
       <c r="F126" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G126" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G126" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>90</v>
       </c>
@@ -4668,11 +5501,17 @@
       <c r="F127" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G127" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G127" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>76</v>
       </c>
@@ -4691,11 +5530,17 @@
       <c r="F128" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G128" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G128" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>80</v>
       </c>
@@ -4714,11 +5559,17 @@
       <c r="F129" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G129" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G129" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>78</v>
       </c>
@@ -4737,11 +5588,17 @@
       <c r="F130" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G130" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G130" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>94</v>
       </c>
@@ -4760,11 +5617,17 @@
       <c r="F131" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G131" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G131" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>91</v>
       </c>
@@ -4783,11 +5646,17 @@
       <c r="F132" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G132" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G132" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>81</v>
       </c>
@@ -4806,11 +5675,17 @@
       <c r="F133" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G133" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G133" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>95</v>
       </c>
@@ -4829,11 +5704,17 @@
       <c r="F134" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G134" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G134" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>92</v>
       </c>
@@ -4852,11 +5733,17 @@
       <c r="F135" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G135" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G135" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>82</v>
       </c>
@@ -4875,11 +5762,17 @@
       <c r="F136" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G136" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G136" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I136" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>79</v>
       </c>
@@ -4898,11 +5791,17 @@
       <c r="F137" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G137" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G137" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I137" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>87</v>
       </c>
@@ -4921,11 +5820,17 @@
       <c r="F138" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G138" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G138" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>124</v>
       </c>
@@ -4944,11 +5849,17 @@
       <c r="F139" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G139" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G139" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>125</v>
       </c>
@@ -4967,11 +5878,17 @@
       <c r="F140" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G140" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G140" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>129</v>
       </c>
@@ -4990,11 +5907,17 @@
       <c r="F141" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G141" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G141" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>128</v>
       </c>
@@ -5013,11 +5936,17 @@
       <c r="F142" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G142" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G142" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I142" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>127</v>
       </c>
@@ -5036,11 +5965,17 @@
       <c r="F143" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G143" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G143" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>123</v>
       </c>
@@ -5059,11 +5994,17 @@
       <c r="F144" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G144" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G144" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>132</v>
       </c>
@@ -5082,11 +6023,17 @@
       <c r="F145" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G145" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G145" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>133</v>
       </c>
@@ -5105,11 +6052,17 @@
       <c r="F146" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G146" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G146" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I146" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>134</v>
       </c>
@@ -5128,11 +6081,17 @@
       <c r="F147" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G147" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G147" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>126</v>
       </c>
@@ -5151,11 +6110,17 @@
       <c r="F148" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G148" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G148" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I148" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>130</v>
       </c>
@@ -5174,11 +6139,17 @@
       <c r="F149" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G149" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G149" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I149" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>122</v>
       </c>
@@ -5197,11 +6168,17 @@
       <c r="F150" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G150" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G150" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I150" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>131</v>
       </c>
@@ -5220,11 +6197,17 @@
       <c r="F151" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G151" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G151" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>199</v>
       </c>
@@ -5243,11 +6226,17 @@
       <c r="F152" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G152" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G152" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>198</v>
       </c>
@@ -5266,11 +6255,17 @@
       <c r="F153" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G153" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G153" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>200</v>
       </c>
@@ -5289,11 +6284,17 @@
       <c r="F154" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G154" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G154" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I154" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>197</v>
       </c>
@@ -5312,11 +6313,17 @@
       <c r="F155" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G155" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G155" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>56</v>
       </c>
@@ -5335,11 +6342,17 @@
       <c r="F156" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G156" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G156" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I156" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>50</v>
       </c>
@@ -5358,11 +6371,17 @@
       <c r="F157" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G157" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G157" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>49</v>
       </c>
@@ -5381,11 +6400,17 @@
       <c r="F158" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G158" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G158" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I158" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>53</v>
       </c>
@@ -5404,11 +6429,17 @@
       <c r="F159" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G159" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G159" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I159" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>55</v>
       </c>
@@ -5427,11 +6458,17 @@
       <c r="F160" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G160" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G160" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I160" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>54</v>
       </c>
@@ -5450,11 +6487,17 @@
       <c r="F161" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G161" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G161" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I161" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>57</v>
       </c>
@@ -5473,11 +6516,17 @@
       <c r="F162" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G162" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G162" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I162" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>52</v>
       </c>
@@ -5496,11 +6545,17 @@
       <c r="F163" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G163" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G163" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I163" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>51</v>
       </c>
@@ -5519,11 +6574,17 @@
       <c r="F164" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G164" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G164" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I164" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>58</v>
       </c>
@@ -5542,11 +6603,17 @@
       <c r="F165" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G165" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G165" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I165" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>48</v>
       </c>
@@ -5565,11 +6632,17 @@
       <c r="F166" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G166" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G166" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I166" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>3</v>
       </c>
@@ -5588,11 +6661,17 @@
       <c r="F167" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G167" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G167" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I167" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>6</v>
       </c>
@@ -5611,11 +6690,17 @@
       <c r="F168" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G168" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G168" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I168" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>5</v>
       </c>
@@ -5634,11 +6719,17 @@
       <c r="F169" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G169" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G169" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I169" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>10</v>
       </c>
@@ -5657,11 +6748,17 @@
       <c r="F170" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G170" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G170" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I170" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>4</v>
       </c>
@@ -5680,11 +6777,17 @@
       <c r="F171" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G171" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G171" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I171" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>8</v>
       </c>
@@ -5703,11 +6806,17 @@
       <c r="F172" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G172" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G172" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H172" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I172" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>2</v>
       </c>
@@ -5726,11 +6835,17 @@
       <c r="F173" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G173" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G173" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H173" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I173" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>9</v>
       </c>
@@ -5749,11 +6864,17 @@
       <c r="F174" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G174" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G174" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I174" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>1</v>
       </c>
@@ -5772,11 +6893,17 @@
       <c r="F175" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G175" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G175" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H175" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I175" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>7</v>
       </c>
@@ -5795,11 +6922,17 @@
       <c r="F176" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G176" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G176" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I176" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>240</v>
       </c>
@@ -5818,11 +6951,17 @@
       <c r="F177" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G177" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G177" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I177" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>237</v>
       </c>
@@ -5841,11 +6980,17 @@
       <c r="F178" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G178" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G178" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H178" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I178" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>238</v>
       </c>
@@ -5864,11 +7009,17 @@
       <c r="F179" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G179" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G179" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I179" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>234</v>
       </c>
@@ -5887,11 +7038,17 @@
       <c r="F180" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G180" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G180" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H180" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I180" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>230</v>
       </c>
@@ -5910,11 +7067,17 @@
       <c r="F181" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G181" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G181" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H181" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I181" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>226</v>
       </c>
@@ -5933,11 +7096,17 @@
       <c r="F182" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G182" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G182" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H182" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I182" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>229</v>
       </c>
@@ -5956,11 +7125,17 @@
       <c r="F183" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G183" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G183" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H183" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I183" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>233</v>
       </c>
@@ -5979,11 +7154,17 @@
       <c r="F184" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G184" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G184" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H184" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I184" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>225</v>
       </c>
@@ -6002,11 +7183,17 @@
       <c r="F185" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="G185" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G185" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H185" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I185" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>236</v>
       </c>
@@ -6025,11 +7212,17 @@
       <c r="F186" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G186" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G186" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H186" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I186" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>235</v>
       </c>
@@ -6048,11 +7241,17 @@
       <c r="F187" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G187" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G187" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H187" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I187" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>231</v>
       </c>
@@ -6071,11 +7270,17 @@
       <c r="F188" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G188" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G188" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H188" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I188" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>244</v>
       </c>
@@ -6094,11 +7299,17 @@
       <c r="F189" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="G189" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G189" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H189" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I189" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>243</v>
       </c>
@@ -6117,11 +7328,17 @@
       <c r="F190" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="G190" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G190" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I190" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>242</v>
       </c>
@@ -6140,11 +7357,17 @@
       <c r="F191" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="G191" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G191" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H191" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I191" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>241</v>
       </c>
@@ -6163,11 +7386,17 @@
       <c r="F192" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="G192" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G192" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H192" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I192" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>228</v>
       </c>
@@ -6186,11 +7415,17 @@
       <c r="F193" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G193" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G193" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H193" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I193" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>227</v>
       </c>
@@ -6209,11 +7444,17 @@
       <c r="F194" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G194" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G194" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H194" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I194" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>232</v>
       </c>
@@ -6232,11 +7473,17 @@
       <c r="F195" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G195" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G195" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H195" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I195" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>239</v>
       </c>
@@ -6255,11 +7502,17 @@
       <c r="F196" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G196" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G196" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H196" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I196" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>650</v>
       </c>
@@ -6278,11 +7531,17 @@
       <c r="F197" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G197" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G197" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H197" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I197" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>660</v>
       </c>
@@ -6301,11 +7560,17 @@
       <c r="F198" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G198" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G198" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H198" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I198" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>651</v>
       </c>
@@ -6324,11 +7589,17 @@
       <c r="F199" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="G199" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G199" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H199" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I199" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>652</v>
       </c>
@@ -6347,11 +7618,17 @@
       <c r="F200" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="G200" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G200" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H200" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I200" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>653</v>
       </c>
@@ -6370,11 +7647,17 @@
       <c r="F201" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="G201" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G201" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H201" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I201" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>654</v>
       </c>
@@ -6393,11 +7676,17 @@
       <c r="F202" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G202" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G202" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H202" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I202" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>655</v>
       </c>
@@ -6416,11 +7705,17 @@
       <c r="F203" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="G203" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G203" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H203" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I203" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>656</v>
       </c>
@@ -6439,11 +7734,17 @@
       <c r="F204" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="G204" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G204" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H204" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I204" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>670</v>
       </c>
@@ -6462,11 +7763,17 @@
       <c r="F205" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="G205" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G205" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H205" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I205" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>657</v>
       </c>
@@ -6485,11 +7792,17 @@
       <c r="F206" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="G206" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G206" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H206" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I206" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>658</v>
       </c>
@@ -6508,11 +7821,17 @@
       <c r="F207" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G207" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G207" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H207" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I207" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>659</v>
       </c>
@@ -6531,11 +7850,17 @@
       <c r="F208" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="G208" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G208" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H208" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I208" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>663</v>
       </c>
@@ -6554,11 +7879,17 @@
       <c r="F209" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="G209" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G209" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H209" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I209" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>661</v>
       </c>
@@ -6577,11 +7908,17 @@
       <c r="F210" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="G210" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G210" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H210" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I210" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>662</v>
       </c>
@@ -6600,11 +7937,17 @@
       <c r="F211" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="G211" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G211" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H211" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I211" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>46</v>
       </c>
@@ -6623,11 +7966,17 @@
       <c r="F212" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G212" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G212" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H212" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I212" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>32</v>
       </c>
@@ -6646,11 +7995,17 @@
       <c r="F213" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G213" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G213" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H213" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I213" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>21</v>
       </c>
@@ -6669,11 +8024,17 @@
       <c r="F214" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G214" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G214" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H214" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I214" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>35</v>
       </c>
@@ -6692,11 +8053,17 @@
       <c r="F215" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G215" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G215" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H215" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I215" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>24</v>
       </c>
@@ -6715,11 +8082,17 @@
       <c r="F216" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G216" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G216" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H216" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I216" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>19</v>
       </c>
@@ -6738,11 +8111,17 @@
       <c r="F217" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G217" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G217" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H217" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I217" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>26</v>
       </c>
@@ -6761,11 +8140,17 @@
       <c r="F218" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G218" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G218" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H218" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I218" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>14</v>
       </c>
@@ -6784,11 +8169,17 @@
       <c r="F219" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G219" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G219" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H219" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I219" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>12</v>
       </c>
@@ -6807,11 +8198,17 @@
       <c r="F220" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G220" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G220" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H220" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I220" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>11</v>
       </c>
@@ -6830,11 +8227,17 @@
       <c r="F221" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G221" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G221" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H221" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I221" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>33</v>
       </c>
@@ -6853,11 +8256,17 @@
       <c r="F222" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G222" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G222" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H222" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I222" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>16</v>
       </c>
@@ -6876,11 +8285,17 @@
       <c r="F223" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G223" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G223" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H223" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I223" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>28</v>
       </c>
@@ -6899,11 +8314,17 @@
       <c r="F224" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G224" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G224" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H224" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I224" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>18</v>
       </c>
@@ -6922,11 +8343,17 @@
       <c r="F225" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G225" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G225" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H225" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I225" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>31</v>
       </c>
@@ -6945,11 +8372,17 @@
       <c r="F226" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G226" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G226" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H226" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I226" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>34</v>
       </c>
@@ -6968,11 +8401,17 @@
       <c r="F227" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G227" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G227" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H227" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I227" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>27</v>
       </c>
@@ -6991,11 +8430,17 @@
       <c r="F228" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G228" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G228" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H228" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I228" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>17</v>
       </c>
@@ -7014,11 +8459,17 @@
       <c r="F229" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G229" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G229" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H229" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I229" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>29</v>
       </c>
@@ -7037,11 +8488,17 @@
       <c r="F230" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G230" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G230" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H230" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I230" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>15</v>
       </c>
@@ -7060,11 +8517,17 @@
       <c r="F231" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G231" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G231" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H231" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I231" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>13</v>
       </c>
@@ -7083,11 +8546,17 @@
       <c r="F232" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G232" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G232" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H232" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I232" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>30</v>
       </c>
@@ -7106,11 +8575,17 @@
       <c r="F233" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G233" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G233" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H233" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I233" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>36</v>
       </c>
@@ -7129,11 +8604,17 @@
       <c r="F234" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G234" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G234" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H234" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I234" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>25</v>
       </c>
@@ -7152,11 +8633,17 @@
       <c r="F235" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G235" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G235" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H235" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I235" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>41</v>
       </c>
@@ -7175,11 +8662,17 @@
       <c r="F236" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G236" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G236" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H236" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I236" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>20</v>
       </c>
@@ -7198,11 +8691,17 @@
       <c r="F237" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G237" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G237" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H237" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I237" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>37</v>
       </c>
@@ -7221,11 +8720,17 @@
       <c r="F238" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G238" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G238" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H238" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I238" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>39</v>
       </c>
@@ -7244,11 +8749,17 @@
       <c r="F239" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G239" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G239" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H239" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I239" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>45</v>
       </c>
@@ -7267,11 +8778,17 @@
       <c r="F240" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G240" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G240" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H240" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I240" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>43</v>
       </c>
@@ -7290,11 +8807,17 @@
       <c r="F241" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G241" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G241" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H241" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I241" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>22</v>
       </c>
@@ -7313,11 +8836,17 @@
       <c r="F242" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G242" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G242" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H242" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I242" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>40</v>
       </c>
@@ -7336,11 +8865,17 @@
       <c r="F243" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G243" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G243" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H243" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I243" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>44</v>
       </c>
@@ -7359,11 +8894,17 @@
       <c r="F244" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G244" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G244" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H244" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I244" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>38</v>
       </c>
@@ -7382,11 +8923,17 @@
       <c r="F245" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G245" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G245" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H245" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I245" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>47</v>
       </c>
@@ -7405,11 +8952,17 @@
       <c r="F246" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G246" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G246" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H246" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I246" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>23</v>
       </c>
@@ -7428,11 +8981,17 @@
       <c r="F247" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G247" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G247" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H247" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I247" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>42</v>
       </c>
@@ -7451,11 +9010,17 @@
       <c r="F248" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G248" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G248" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H248" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I248" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>2616</v>
       </c>
@@ -7468,13 +9033,23 @@
       <c r="D249" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
-      <c r="G249" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E249" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G249" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H249" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I249" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>2617</v>
       </c>
@@ -7487,13 +9062,23 @@
       <c r="D250" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
-      <c r="G250" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E250" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G250" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H250" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I250" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>2601</v>
       </c>
@@ -7506,13 +9091,23 @@
       <c r="D251" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E251" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G251" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H251" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I251" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>2602</v>
       </c>
@@ -7525,13 +9120,23 @@
       <c r="D252" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E252" s="2"/>
-      <c r="F252" s="2"/>
-      <c r="G252" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E252" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G252" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H252" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I252" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>2603</v>
       </c>
@@ -7544,13 +9149,23 @@
       <c r="D253" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
-      <c r="G253" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E253" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G253" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H253" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I253" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>2604</v>
       </c>
@@ -7563,13 +9178,23 @@
       <c r="D254" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E254" s="2"/>
-      <c r="F254" s="2"/>
-      <c r="G254" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E254" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G254" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H254" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I254" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>2605</v>
       </c>
@@ -7582,13 +9207,23 @@
       <c r="D255" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E255" s="2"/>
-      <c r="F255" s="2"/>
-      <c r="G255" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E255" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G255" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H255" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I255" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>2606</v>
       </c>
@@ -7601,13 +9236,23 @@
       <c r="D256" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E256" s="2"/>
-      <c r="F256" s="2"/>
-      <c r="G256" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E256" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G256" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H256" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I256" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>2607</v>
       </c>
@@ -7620,13 +9265,23 @@
       <c r="D257" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E257" s="2"/>
-      <c r="F257" s="2"/>
-      <c r="G257" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E257" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G257" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H257" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I257" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>2611</v>
       </c>
@@ -7639,13 +9294,23 @@
       <c r="D258" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E258" s="2"/>
-      <c r="F258" s="2"/>
-      <c r="G258" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E258" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G258" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H258" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I258" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>2618</v>
       </c>
@@ -7658,13 +9323,23 @@
       <c r="D259" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E259" s="2"/>
-      <c r="F259" s="2"/>
-      <c r="G259" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E259" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G259" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H259" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I259" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>2619</v>
       </c>
@@ -7677,13 +9352,23 @@
       <c r="D260" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E260" s="2"/>
-      <c r="F260" s="2"/>
-      <c r="G260" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E260" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G260" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H260" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I260" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>2612</v>
       </c>
@@ -7696,13 +9381,23 @@
       <c r="D261" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E261" s="2"/>
-      <c r="F261" s="2"/>
-      <c r="G261" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E261" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G261" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H261" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I261" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>2608</v>
       </c>
@@ -7715,13 +9410,23 @@
       <c r="D262" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
-      <c r="G262" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E262" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G262" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H262" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I262" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>2609</v>
       </c>
@@ -7734,13 +9439,23 @@
       <c r="D263" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E263" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G263" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H263" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I263" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>2621</v>
       </c>
@@ -7753,13 +9468,23 @@
       <c r="D264" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-      <c r="G264" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E264" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G264" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H264" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I264" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>2613</v>
       </c>
@@ -7772,13 +9497,23 @@
       <c r="D265" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E265" s="2"/>
-      <c r="F265" s="2"/>
-      <c r="G265" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E265" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G265" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H265" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I265" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>2614</v>
       </c>
@@ -7791,13 +9526,23 @@
       <c r="D266" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E266" s="2"/>
-      <c r="F266" s="2"/>
-      <c r="G266" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E266" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G266" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H266" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I266" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>2615</v>
       </c>
@@ -7810,13 +9555,23 @@
       <c r="D267" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
-      <c r="G267" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E267" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G267" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H267" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I267" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>2610</v>
       </c>
@@ -7829,13 +9584,23 @@
       <c r="D268" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
-      <c r="G268" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E268" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G268" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H268" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I268" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>2620</v>
       </c>
@@ -7848,13 +9613,23 @@
       <c r="D269" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
-      <c r="G269" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E269" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G269" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H269" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I269" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>259</v>
       </c>
@@ -7867,13 +9642,23 @@
       <c r="D270" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
-      <c r="G270" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E270" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G270" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H270" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I270" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>251</v>
       </c>
@@ -7892,11 +9677,17 @@
       <c r="F271" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G271" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G271" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H271" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I271" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>255</v>
       </c>
@@ -7915,11 +9706,17 @@
       <c r="F272" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G272" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G272" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H272" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I272" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>253</v>
       </c>
@@ -7938,11 +9735,17 @@
       <c r="F273" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G273" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G273" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H273" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I273" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>246</v>
       </c>
@@ -7961,11 +9764,17 @@
       <c r="F274" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G274" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G274" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H274" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I274" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>248</v>
       </c>
@@ -7984,11 +9793,17 @@
       <c r="F275" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G275" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G275" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H275" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I275" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>247</v>
       </c>
@@ -8007,11 +9822,17 @@
       <c r="F276" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G276" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G276" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H276" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I276" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>252</v>
       </c>
@@ -8030,11 +9851,17 @@
       <c r="F277" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G277" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G277" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H277" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I277" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>256</v>
       </c>
@@ -8053,11 +9880,17 @@
       <c r="F278" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G278" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G278" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H278" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I278" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>250</v>
       </c>
@@ -8076,11 +9909,17 @@
       <c r="F279" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G279" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G279" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H279" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I279" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>257</v>
       </c>
@@ -8099,11 +9938,17 @@
       <c r="F280" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G280" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G280" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H280" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I280" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>258</v>
       </c>
@@ -8122,11 +9967,17 @@
       <c r="F281" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G281" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G281" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H281" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I281" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>254</v>
       </c>
@@ -8145,11 +9996,17 @@
       <c r="F282" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G282" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G282" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H282" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I282" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>249</v>
       </c>
@@ -8168,11 +10025,17 @@
       <c r="F283" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G283" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G283" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H283" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I283" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>245</v>
       </c>
@@ -8191,8 +10054,14 @@
       <c r="F284" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G284" s="5" t="b">
-        <v>0</v>
+      <c r="G284" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H284" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I284" s="7" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
